--- a/Salle/Twitter/Intermedias/conteos_categorias.xlsx
+++ b/Salle/Twitter/Intermedias/conteos_categorias.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Anio</t>
   </si>
@@ -26,7 +26,19 @@
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Parlamento</t>
+    <t xml:space="preserve">Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orden global y política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema judicial</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
@@ -36,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandemia</t>
   </si>
   <si>
     <t xml:space="preserve">2019</t>
@@ -404,51 +419,51 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
@@ -459,51 +474,535 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>336</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>164</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
